--- a/sifa_E_tong/pages/template/lawyerFile.xlsx
+++ b/sifa_E_tong/pages/template/lawyerFile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23175" windowHeight="12690"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>律师姓名</t>
   </si>
@@ -24,9 +24,6 @@
     <t>律所名称</t>
   </si>
   <si>
-    <t>律所地址</t>
-  </si>
-  <si>
     <t>执业证号</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>惩罚结果</t>
   </si>
   <si>
-    <t>律所负责人</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -88,24 +82,12 @@
     <t>否</t>
   </si>
   <si>
-    <t>湖南省长沙市劳动西路377号1802室</t>
-  </si>
-  <si>
-    <t>臧作勇</t>
-  </si>
-  <si>
     <t>白德胤</t>
   </si>
   <si>
     <t>湖南博泰律师事务所</t>
   </si>
   <si>
-    <t>湖南省长沙市天心区芙蓉中路380号汇金国际银座1701室</t>
-  </si>
-  <si>
-    <t>李晓芳</t>
-  </si>
-  <si>
     <t>14301199110337265</t>
   </si>
   <si>
@@ -116,12 +98,6 @@
   </si>
   <si>
     <t>湖南恒昌律师事务所</t>
-  </si>
-  <si>
-    <t>长沙市八一路59号省科技厅机关二院信息大楼901、903、906室</t>
-  </si>
-  <si>
-    <t>高占国</t>
   </si>
   <si>
     <t>14301199310735942</t>
@@ -247,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,9 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,108 +547,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="48.75" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="33.125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="11.75" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="33.125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25" customHeight="1">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -683,138 +649,120 @@
       <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4">
+        <v>33714</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4">
-        <v>33714</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>33373</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4">
-        <v>33373</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4">
+        <v>34090</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="M4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4">
-        <v>34090</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
